--- a/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
@@ -26,14 +26,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
+  <x:fonts count="1">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
@@ -92,7 +92,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -375,7 +375,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
@@ -386,7 +386,6 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:2"/>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="1" t="s">
         <x:v>0</x:v>
@@ -395,7 +394,6 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:2"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
@@ -45,7 +45,6 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFFFA500"/>
-        <x:bgColor rgb="FFFFA500"/>
       </x:patternFill>
     </x:fill>
   </x:fills>

--- a/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
@@ -379,7 +379,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H3"/>
+  <x:dimension ref="A1:B2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
